--- a/fun_search_backend/config/ranking.xlsx
+++ b/fun_search_backend/config/ranking.xlsx
@@ -10,14 +10,17 @@
     <sheet name="7th" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7th'!$A$1:$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7th'!$B$1:$F$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="71">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>rank</t>
   </si>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>votes</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>孙芮</t>
@@ -231,12 +237,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,14 +252,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,9 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,45 +285,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,9 +303,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,45 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,25 +404,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,103 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,49 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +595,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,29 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,21 +668,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,159 +689,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,15 +1164,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1189,825 +1188,975 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>3533525</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>2415173</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>1383062</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <v>1035116</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>983764</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
         <v>963459</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
         <v>685007</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
         <v>627468</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
         <v>624678</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="B11">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
         <v>624527</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
+      <c r="B12">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
         <v>608097</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
+      <c r="B13">
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
         <v>597778</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
+      <c r="B14">
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
         <v>534644</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
+      <c r="B15">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
         <v>524140</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
+      <c r="B16">
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
         <v>490001</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
+      <c r="B17">
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
         <v>405444</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
+      <c r="B18">
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
         <v>367455</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19">
+      <c r="F19">
         <v>348352</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
+      <c r="B20">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20">
         <v>345247</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>36</v>
+      <c r="B21">
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
         <v>306152</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
+      <c r="B22">
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
         <v>279994</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>38</v>
+      <c r="B23">
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
         <v>266661</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>39</v>
+      <c r="B24">
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
         <v>258242</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>40</v>
+      <c r="B25">
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
         <v>245807</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
+      <c r="B26">
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26">
         <v>242857</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>43</v>
+      <c r="B27">
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
         <v>232327</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>44</v>
+      <c r="B28">
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28">
         <v>201348</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>45</v>
+      <c r="B29">
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29">
         <v>200337</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
+      <c r="B30">
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30">
         <v>196906</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>47</v>
+      <c r="B31">
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
         <v>195908</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>48</v>
+      <c r="B32">
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32">
         <v>185857</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>51</v>
+      <c r="B33">
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
         <v>182748</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>52</v>
+      <c r="B34">
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34">
         <v>181422</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>53</v>
+      <c r="B35">
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35">
         <v>178765</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>55</v>
+      <c r="B36">
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36">
         <v>177187</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>56</v>
+      <c r="B37">
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37">
         <v>176773</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
+      <c r="B38">
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38">
         <v>172820</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
+      <c r="B39">
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39">
         <v>169944</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>59</v>
+      <c r="B40">
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40">
         <v>167489</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>60</v>
+      <c r="B41">
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
         <v>160075</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>61</v>
+      <c r="B42">
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42">
         <v>158987</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>62</v>
+      <c r="B43">
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43">
         <v>153991</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>63</v>
+      <c r="B44">
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44">
         <v>153858</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>64</v>
+      <c r="B45">
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
         <v>153414</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>65</v>
+      <c r="B46">
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
         <v>151933</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>66</v>
+      <c r="B47">
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47">
         <v>147783</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>67</v>
+      <c r="B48">
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
         <v>145885</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>68</v>
+      <c r="B49">
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
         <v>142386</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E49">
+  <autoFilter ref="B1:F49">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
